--- a/udder_models/ws_classify/ws_mask_classify_cross_cfmatrix.xlsx
+++ b/udder_models/ws_classify/ws_mask_classify_cross_cfmatrix.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\rep_codes\udder_project\udder_models\ws_classify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D4D276-6444-439F-89F9-9ACAEEB72E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE344510-5A35-434E-8694-8BFD8F077BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260"/>
+    <workbookView xWindow="690" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ws_mask_classify_cross_cfmatrix" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>fold</t>
   </si>
@@ -69,11 +82,20 @@
   <si>
     <t>P_0</t>
   </si>
+  <si>
+    <t>F1_1</t>
+  </si>
+  <si>
+    <t>R_1</t>
+  </si>
+  <si>
+    <t>P_1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,8 +634,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F41" totalsRowShown="0">
-  <autoFilter ref="A1:F41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F41" totalsRowShown="0">
+  <autoFilter ref="A1:F41" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="thr09"/>
@@ -621,21 +643,21 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="fold"/>
-    <tableColumn id="2" name="variable"/>
-    <tableColumn id="3" name="img_class"/>
-    <tableColumn id="4" name="total"/>
-    <tableColumn id="5" name="pred_1"/>
-    <tableColumn id="6" name="pred_0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fold"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="variable"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="img_class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="total"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pred_1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pred_0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -673,7 +695,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -779,7 +801,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -921,27 +943,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.31640625" customWidth="1"/>
-    <col min="3" max="3" width="10.58984375" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +1001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -999,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1019,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1039,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1059,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1079,7 +1101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1099,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1146,7 +1168,7 @@
         <v>0.56685084470543745</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1180,6 +1202,10 @@
         <f t="shared" ref="K9:K41" si="0">2*(I9*J9)/(I9+J9)</f>
         <v>0.53846153846153855</v>
       </c>
+      <c r="M9">
+        <f>_xlfn.STDEV.S(K8,K16,K24,K32,K40)</f>
+        <v>3.3121414800889259E-2</v>
+      </c>
       <c r="N9">
         <f>_xlfn.STDEV.S(J8,J16,J24,J32,J40)</f>
         <v>0.12110601416389942</v>
@@ -1189,7 +1215,7 @@
         <v>4.1935786321131915E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1213,7 +1239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1237,7 +1263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1261,7 +1287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1285,7 +1311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1309,7 +1335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1333,7 +1359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1368,7 +1394,7 @@
         <v>0.71232876712328774</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1403,7 +1429,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1427,7 +1453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1451,7 +1477,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1475,7 +1501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1499,7 +1525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1523,7 +1549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1547,7 +1573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1581,8 +1607,17 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1616,8 +1651,20 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="M25">
+        <f>AVERAGE(K9,K17,K33,K41)</f>
+        <v>0.47456066505314115</v>
+      </c>
+      <c r="N25">
+        <f>AVERAGE(J9,J17,J33,J41, J25)</f>
+        <v>0.29660714285714285</v>
+      </c>
+      <c r="O25">
+        <f>AVERAGE(I9,I17,I33,I41)</f>
+        <v>0.7470843301435407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1640,8 +1687,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="M26" t="e">
+        <f t="shared" ref="M26:M32" si="1">AVERAGE(K10,K18,K34,K42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O32" si="2">AVERAGE(I10,I18,I34,I42,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1664,8 +1719,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="M27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1688,8 +1751,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="M28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1712,8 +1783,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="M29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1736,8 +1815,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="M30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1760,8 +1847,20 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="M31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" t="e">
+        <f>AVERAGE(J31,J39,J47,J55,J63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1795,8 +1894,20 @@
         <f t="shared" si="0"/>
         <v>0.72499999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="M32">
+        <f>_xlfn.STDEV.S(K9,K17,K33,K41)</f>
+        <v>0.10790059995027491</v>
+      </c>
+      <c r="N32">
+        <f>_xlfn.STDEV.S(J9,J17,J33,J41, J25)</f>
+        <v>0.19663089327877753</v>
+      </c>
+      <c r="O32">
+        <f>_xlfn.STDEV.S(I9,I17,I33,I41)</f>
+        <v>0.19329911222662213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1831,7 +1942,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1855,7 +1966,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1879,7 +1990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1903,7 +2014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1927,7 +2038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1951,7 +2062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1975,7 +2086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2010,7 +2121,7 @@
         <v>0.64788732394366211</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
